--- a/biology/Botanique/Cotonnier/Cotonnier.xlsx
+++ b/biology/Botanique/Cotonnier/Cotonnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cotonnier est un nom vernaculaire ambigu désignant en français certaines plantes produisant, à l'état sauvage ou en culture, du coton. C'est le cas des espèces du genre Gossypium.
 On appelle également « cotonnier » d'autres plantes qui ne produisent pas de coton. Ce sont parfois des espèces utilisées comme plantes ornementales.
@@ -512,7 +524,9 @@
           <t>Gossypium</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Toutes les espèces du genre Gossypium ne sont pas appelées « cotonnier ».
 Parmi les espèces, quatre sont à l'origine des cultivars utilisés actuellement pour la production de coton :
@@ -552,10 +566,12 @@
           <t>Cotoneaster</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces de ce genre sont appelées « cotonnier ».
-Cotonnier du Dauphiné -  Cotoneaster delphinensis Châtenier[1],
+Cotonnier du Dauphiné -  Cotoneaster delphinensis Châtenier,
 Cotonnier à feuilles entières ou néflier cotonnier  - Cotoneaster integerrimus Medik[réf. nécessaire].
 Ce sont des plantes proches du néflier.
 </t>
@@ -586,9 +602,11 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Gomphocarpus fruticosus est appelé faux-cotonnier[2].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gomphocarpus fruticosus est appelé faux-cotonnier.</t>
         </is>
       </c>
     </row>
